--- a/PSO_HW6/results/best_objectives_v9_30.xlsx
+++ b/PSO_HW6/results/best_objectives_v9_30.xlsx
@@ -1,56 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\PycharmProjects\adaptive_optimization\PSO_HW6\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33326231-3FD4-4251-A36E-9404C89674EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3105" yWindow="-12825" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Seed 0 pop 30</t>
+    <t>Seed 0</t>
   </si>
   <si>
-    <t>Seed 1 pop 30</t>
+    <t>Seed 1</t>
   </si>
   <si>
-    <t>Seed 2 pop 30</t>
+    <t>Seed 2</t>
   </si>
   <si>
-    <t>Seed 3 pop 30</t>
+    <t>Seed 3</t>
   </si>
   <si>
-    <t>Seed 4 pop 30</t>
+    <t>Seed 4</t>
   </si>
   <si>
-    <t>Seed 5 pop 30</t>
+    <t>Seed 5</t>
   </si>
   <si>
-    <t>Seed 6 pop 30</t>
+    <t>Seed 6</t>
   </si>
   <si>
-    <t>Seed 7 pop 30</t>
+    <t>Seed 7</t>
   </si>
   <si>
-    <t>Seed 8 pop 30</t>
+    <t>Seed 8</t>
   </si>
   <si>
-    <t>Seed 9 pop 30</t>
+    <t>Seed 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +119,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +205,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +257,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,14 +450,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,652 +491,652 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-547.8635254654488</v>
+        <v>-547.86352546544879</v>
       </c>
       <c r="B2">
-        <v>-675.2050284236312</v>
+        <v>-675.20502842363123</v>
       </c>
       <c r="C2">
-        <v>-513.1461690727263</v>
+        <v>-513.14616907272625</v>
       </c>
       <c r="D2">
-        <v>-491.0993787077093</v>
+        <v>-491.09937870770932</v>
       </c>
       <c r="E2">
-        <v>-694.374823137831</v>
+        <v>-694.37482313783096</v>
       </c>
       <c r="F2">
-        <v>-534.7066344227077</v>
+        <v>-534.70663442270768</v>
       </c>
       <c r="G2">
-        <v>-530.6216523140286</v>
+        <v>-530.62165231402855</v>
       </c>
       <c r="H2">
-        <v>-664.0306631167257</v>
+        <v>-664.03066311672569</v>
       </c>
       <c r="I2">
-        <v>-653.447096018841</v>
+        <v>-653.44709601884097</v>
       </c>
       <c r="J2">
-        <v>-597.0917715923359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>-597.09177159233593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-547.8635254654488</v>
+        <v>-547.86352546544879</v>
       </c>
       <c r="B3">
-        <v>-724.100040336682</v>
+        <v>-724.10004033668201</v>
       </c>
       <c r="C3">
-        <v>-618.9660549766547</v>
+        <v>-618.96605497665473</v>
       </c>
       <c r="D3">
-        <v>-586.9544410695294</v>
+        <v>-586.95444106952937</v>
       </c>
       <c r="E3">
-        <v>-852.4399322140065</v>
+        <v>-852.43993221400649</v>
       </c>
       <c r="F3">
-        <v>-555.8722585826176</v>
+        <v>-555.87225858261763</v>
       </c>
       <c r="G3">
-        <v>-530.6216523140286</v>
+        <v>-530.62165231402855</v>
       </c>
       <c r="H3">
-        <v>-664.0306631167257</v>
+        <v>-664.03066311672569</v>
       </c>
       <c r="I3">
-        <v>-678.4540026419044</v>
+        <v>-678.45400264190437</v>
       </c>
       <c r="J3">
-        <v>-597.0917715923359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>-597.09177159233593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-547.8635254654488</v>
+        <v>-547.86352546544879</v>
       </c>
       <c r="B4">
-        <v>-848.6010369682</v>
+        <v>-848.60103696819999</v>
       </c>
       <c r="C4">
-        <v>-657.2347261344394</v>
+        <v>-657.23472613443937</v>
       </c>
       <c r="D4">
-        <v>-817.2324651226647</v>
+        <v>-817.23246512266473</v>
       </c>
       <c r="E4">
-        <v>-858.4313588936682</v>
+        <v>-858.43135889366818</v>
       </c>
       <c r="F4">
-        <v>-556.8011470553741</v>
+        <v>-556.80114705537414</v>
       </c>
       <c r="G4">
-        <v>-596.9726501262078</v>
+        <v>-596.97265012620778</v>
       </c>
       <c r="H4">
-        <v>-666.4769222205995</v>
+        <v>-666.47692222059948</v>
       </c>
       <c r="I4">
-        <v>-678.4540026419044</v>
+        <v>-678.45400264190437</v>
       </c>
       <c r="J4">
         <v>-622.3735395800752</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-547.8635254654488</v>
+        <v>-547.86352546544879</v>
       </c>
       <c r="B5">
-        <v>-906.0148988944761</v>
+        <v>-906.01489889447612</v>
       </c>
       <c r="C5">
-        <v>-689.5368814758502</v>
+        <v>-689.53688147585024</v>
       </c>
       <c r="D5">
-        <v>-817.2324651226647</v>
+        <v>-817.23246512266473</v>
       </c>
       <c r="E5">
-        <v>-883.4609997984172</v>
+        <v>-883.46099979841722</v>
       </c>
       <c r="F5">
-        <v>-556.8011470553741</v>
+        <v>-556.80114705537414</v>
       </c>
       <c r="G5">
-        <v>-635.4920294115227</v>
+        <v>-635.49202941152271</v>
       </c>
       <c r="H5">
-        <v>-850.4113323063013</v>
+        <v>-850.41133230630135</v>
       </c>
       <c r="I5">
-        <v>-678.4540026419044</v>
+        <v>-678.45400264190437</v>
       </c>
       <c r="J5">
         <v>-622.3735395800752</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-552.4898697707388</v>
+        <v>-552.48986977073878</v>
       </c>
       <c r="B6">
-        <v>-906.0148988944761</v>
+        <v>-906.01489889447612</v>
       </c>
       <c r="C6">
-        <v>-750.692709839427</v>
+        <v>-750.69270983942704</v>
       </c>
       <c r="D6">
         <v>-817.6409829647954</v>
       </c>
       <c r="E6">
-        <v>-883.4609997984172</v>
+        <v>-883.46099979841722</v>
       </c>
       <c r="F6">
-        <v>-556.8011470553741</v>
+        <v>-556.80114705537414</v>
       </c>
       <c r="G6">
-        <v>-719.0571073573578</v>
+        <v>-719.05710735735784</v>
       </c>
       <c r="H6">
-        <v>-858.5050594567206</v>
+        <v>-858.50505945672057</v>
       </c>
       <c r="I6">
-        <v>-683.2133223923888</v>
+        <v>-683.21332239238882</v>
       </c>
       <c r="J6">
         <v>-622.3735395800752</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-554.7228153386736</v>
+        <v>-554.72281533867363</v>
       </c>
       <c r="B7">
-        <v>-906.0148988944761</v>
+        <v>-906.01489889447612</v>
       </c>
       <c r="C7">
-        <v>-750.692709839427</v>
+        <v>-750.69270983942704</v>
       </c>
       <c r="D7">
-        <v>-845.9102116172766</v>
+        <v>-845.91021161727656</v>
       </c>
       <c r="E7">
-        <v>-883.4609997984172</v>
+        <v>-883.46099979841722</v>
       </c>
       <c r="F7">
-        <v>-556.8011470553741</v>
+        <v>-556.80114705537414</v>
       </c>
       <c r="G7">
-        <v>-822.897078748158</v>
+        <v>-822.89707874815804</v>
       </c>
       <c r="H7">
-        <v>-858.5050594567206</v>
+        <v>-858.50505945672057</v>
       </c>
       <c r="I7">
-        <v>-683.2133223923888</v>
+        <v>-683.21332239238882</v>
       </c>
       <c r="J7">
         <v>-622.3735395800752</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>-558.3256038342163</v>
+        <v>-558.32560383421628</v>
       </c>
       <c r="B8">
-        <v>-951.9598395599857</v>
+        <v>-951.95983955998565</v>
       </c>
       <c r="C8">
-        <v>-750.692709839427</v>
+        <v>-750.69270983942704</v>
       </c>
       <c r="D8">
-        <v>-845.9102116172766</v>
+        <v>-845.91021161727656</v>
       </c>
       <c r="E8">
-        <v>-883.4609997984172</v>
+        <v>-883.46099979841722</v>
       </c>
       <c r="F8">
-        <v>-556.8011470553741</v>
+        <v>-556.80114705537414</v>
       </c>
       <c r="G8">
-        <v>-822.897078748158</v>
+        <v>-822.89707874815804</v>
       </c>
       <c r="H8">
         <v>-858.5762339081441</v>
       </c>
       <c r="I8">
-        <v>-683.2133223923888</v>
+        <v>-683.21332239238882</v>
       </c>
       <c r="J8">
-        <v>-625.7208927701143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>-625.72089277011435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>-558.3256038342163</v>
+        <v>-558.32560383421628</v>
       </c>
       <c r="B9">
-        <v>-951.9598395599857</v>
+        <v>-951.95983955998565</v>
       </c>
       <c r="C9">
-        <v>-774.4295675833164</v>
+        <v>-774.42956758331638</v>
       </c>
       <c r="D9">
-        <v>-845.9102116172766</v>
+        <v>-845.91021161727656</v>
       </c>
       <c r="E9">
-        <v>-885.5099517573192</v>
+        <v>-885.50995175731919</v>
       </c>
       <c r="F9">
-        <v>-556.8344438503955</v>
+        <v>-556.83444385039547</v>
       </c>
       <c r="G9">
-        <v>-836.5493460866617</v>
+        <v>-836.54934608666167</v>
       </c>
       <c r="H9">
         <v>-858.5762339081441</v>
       </c>
       <c r="I9">
-        <v>-686.6351487972771</v>
+        <v>-686.63514879727711</v>
       </c>
       <c r="J9">
-        <v>-628.7053475338643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>-628.70534753386426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>-728.899097559831</v>
+        <v>-728.89909755983103</v>
       </c>
       <c r="B10">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C10">
-        <v>-774.4295675833164</v>
+        <v>-774.42956758331638</v>
       </c>
       <c r="D10">
-        <v>-874.5790999664575</v>
+        <v>-874.57909996645753</v>
       </c>
       <c r="E10">
-        <v>-888.8627332464496</v>
+        <v>-888.86273324644958</v>
       </c>
       <c r="F10">
-        <v>-556.8782805273663</v>
+        <v>-556.87828052736631</v>
       </c>
       <c r="G10">
-        <v>-836.5493460866617</v>
+        <v>-836.54934608666167</v>
       </c>
       <c r="H10">
-        <v>-882.5155996609242</v>
+        <v>-882.51559966092418</v>
       </c>
       <c r="I10">
-        <v>-686.6351487972771</v>
+        <v>-686.63514879727711</v>
       </c>
       <c r="J10">
-        <v>-628.7053475338643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>-628.70534753386426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-819.367338752053</v>
       </c>
       <c r="B11">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C11">
-        <v>-774.4295675833164</v>
+        <v>-774.42956758331638</v>
       </c>
       <c r="D11">
-        <v>-874.5790999664575</v>
+        <v>-874.57909996645753</v>
       </c>
       <c r="E11">
-        <v>-888.8627332464496</v>
+        <v>-888.86273324644958</v>
       </c>
       <c r="F11">
-        <v>-557.0426229431389</v>
+        <v>-557.04262294313889</v>
       </c>
       <c r="G11">
-        <v>-836.5493460866617</v>
+        <v>-836.54934608666167</v>
       </c>
       <c r="H11">
-        <v>-902.549093959622</v>
+        <v>-902.54909395962204</v>
       </c>
       <c r="I11">
-        <v>-707.7291294920705</v>
+        <v>-707.72912949207046</v>
       </c>
       <c r="J11">
-        <v>-628.7053475338643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>-628.70534753386426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>-821.1960812561875</v>
+        <v>-821.19608125618754</v>
       </c>
       <c r="B12">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C12">
-        <v>-774.4295675833164</v>
+        <v>-774.42956758331638</v>
       </c>
       <c r="D12">
-        <v>-874.5790999664575</v>
+        <v>-874.57909996645753</v>
       </c>
       <c r="E12">
-        <v>-888.9222858053014</v>
+        <v>-888.92228580530139</v>
       </c>
       <c r="F12">
-        <v>-557.0488954504318</v>
+        <v>-557.04889545043181</v>
       </c>
       <c r="G12">
-        <v>-864.7917700571335</v>
+        <v>-864.79177005713348</v>
       </c>
       <c r="H12">
-        <v>-936.4493558251913</v>
+        <v>-936.44935582519133</v>
       </c>
       <c r="I12">
-        <v>-716.055269666773</v>
+        <v>-716.05526966677303</v>
       </c>
       <c r="J12">
-        <v>-771.0031406414146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>-771.00314064141457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B13">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C13">
-        <v>-779.1407213797388</v>
+        <v>-779.14072137973881</v>
       </c>
       <c r="D13">
-        <v>-874.5790999664575</v>
+        <v>-874.57909996645753</v>
       </c>
       <c r="E13">
-        <v>-888.9222858053014</v>
+        <v>-888.92228580530139</v>
       </c>
       <c r="F13">
-        <v>-557.3633460154548</v>
+        <v>-557.36334601545479</v>
       </c>
       <c r="G13">
-        <v>-874.46108311718</v>
+        <v>-874.46108311718001</v>
       </c>
       <c r="H13">
-        <v>-956.9371499187137</v>
+        <v>-956.93714991871366</v>
       </c>
       <c r="I13">
-        <v>-716.1984078296858</v>
+        <v>-716.19840782968583</v>
       </c>
       <c r="J13">
-        <v>-771.0031406414146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>-771.00314064141457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B14">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C14">
-        <v>-779.1407213797388</v>
+        <v>-779.14072137973881</v>
       </c>
       <c r="D14">
-        <v>-881.9895257899797</v>
+        <v>-881.98952578997967</v>
       </c>
       <c r="E14">
-        <v>-888.9222858053014</v>
+        <v>-888.92228580530139</v>
       </c>
       <c r="F14">
-        <v>-557.3633460154548</v>
+        <v>-557.36334601545479</v>
       </c>
       <c r="G14">
-        <v>-887.5864000050562</v>
+        <v>-887.58640000505625</v>
       </c>
       <c r="H14">
-        <v>-959.6383699768846</v>
+        <v>-959.63836997688463</v>
       </c>
       <c r="I14">
-        <v>-838.3595230766419</v>
+        <v>-838.35952307664195</v>
       </c>
       <c r="J14">
-        <v>-771.0031406414146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>-771.00314064141457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B15">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C15">
         <v>-781.6102391403715</v>
       </c>
       <c r="D15">
-        <v>-886.8615173277952</v>
+        <v>-886.86151732779524</v>
       </c>
       <c r="E15">
-        <v>-888.9222858053014</v>
+        <v>-888.92228580530139</v>
       </c>
       <c r="F15">
-        <v>-557.3633460154548</v>
+        <v>-557.36334601545479</v>
       </c>
       <c r="G15">
-        <v>-891.3789104278487</v>
+        <v>-891.37891042784872</v>
       </c>
       <c r="H15">
-        <v>-959.6383699768846</v>
+        <v>-959.63836997688463</v>
       </c>
       <c r="I15">
-        <v>-858.3457437817758</v>
+        <v>-858.34574378177581</v>
       </c>
       <c r="J15">
-        <v>-771.0031406414146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>-771.00314064141457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B16">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C16">
-        <v>-782.4759530798538</v>
+        <v>-782.47595307985375</v>
       </c>
       <c r="D16">
-        <v>-886.8615173277952</v>
+        <v>-886.86151732779524</v>
       </c>
       <c r="E16">
-        <v>-888.9222858053014</v>
+        <v>-888.92228580530139</v>
       </c>
       <c r="F16">
         <v>-788.8552377632883</v>
       </c>
       <c r="G16">
-        <v>-894.5181946262172</v>
+        <v>-894.51819462621722</v>
       </c>
       <c r="H16">
-        <v>-959.6383699768846</v>
+        <v>-959.63836997688463</v>
       </c>
       <c r="I16">
-        <v>-858.3457437817758</v>
+        <v>-858.34574378177581</v>
       </c>
       <c r="J16">
-        <v>-877.0658588841919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>-877.06585888419193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B17">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C17">
-        <v>-784.916229416543</v>
+        <v>-784.91622941654305</v>
       </c>
       <c r="D17">
-        <v>-889.089151820705</v>
+        <v>-889.08915182070496</v>
       </c>
       <c r="E17">
         <v>-888.9463612966515</v>
       </c>
       <c r="F17">
-        <v>-885.9206267792015</v>
+        <v>-885.92062677920148</v>
       </c>
       <c r="G17">
-        <v>-894.5181946262172</v>
+        <v>-894.51819462621722</v>
       </c>
       <c r="H17">
-        <v>-959.6383699768846</v>
+        <v>-959.63836997688463</v>
       </c>
       <c r="I17">
-        <v>-858.3457437817758</v>
+        <v>-858.34574378177581</v>
       </c>
       <c r="J17">
-        <v>-877.0658588841919</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>-877.06585888419193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B18">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C18">
-        <v>-784.916229416543</v>
+        <v>-784.91622941654305</v>
       </c>
       <c r="D18">
-        <v>-892.1327142674281</v>
+        <v>-892.13271426742813</v>
       </c>
       <c r="E18">
         <v>-888.9463612966515</v>
       </c>
       <c r="F18">
-        <v>-885.9206267792015</v>
+        <v>-885.92062677920148</v>
       </c>
       <c r="G18">
-        <v>-894.5752503986785</v>
+        <v>-894.57525039867846</v>
       </c>
       <c r="H18">
-        <v>-959.6383699768846</v>
+        <v>-959.63836997688463</v>
       </c>
       <c r="I18">
-        <v>-858.3457437817758</v>
+        <v>-858.34574378177581</v>
       </c>
       <c r="J18">
-        <v>-918.4752462743625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>-918.47524627436246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B19">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C19">
-        <v>-785.5618825082429</v>
+        <v>-785.56188250824289</v>
       </c>
       <c r="D19">
-        <v>-892.1327142674281</v>
+        <v>-892.13271426742813</v>
       </c>
       <c r="E19">
         <v>-888.9463612966515</v>
       </c>
       <c r="F19">
-        <v>-885.9206267792015</v>
+        <v>-885.92062677920148</v>
       </c>
       <c r="G19">
-        <v>-894.5752503986785</v>
+        <v>-894.57525039867846</v>
       </c>
       <c r="H19">
-        <v>-959.6383699768846</v>
+        <v>-959.63836997688463</v>
       </c>
       <c r="I19">
-        <v>-858.5803160709934</v>
+        <v>-858.58031607099338</v>
       </c>
       <c r="J19">
-        <v>-926.3212177846456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>-926.32121778464557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B20">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C20">
-        <v>-786.2318479315264</v>
+        <v>-786.23184793152643</v>
       </c>
       <c r="D20">
-        <v>-892.817849893509</v>
+        <v>-892.81784989350899</v>
       </c>
       <c r="E20">
         <v>-888.9463612966515</v>
       </c>
       <c r="F20">
-        <v>-886.5385244101394</v>
+        <v>-886.53852441013942</v>
       </c>
       <c r="G20">
-        <v>-894.5752503986785</v>
+        <v>-894.57525039867846</v>
       </c>
       <c r="H20">
-        <v>-959.6383699768846</v>
+        <v>-959.63836997688463</v>
       </c>
       <c r="I20">
-        <v>-858.5803160709934</v>
+        <v>-858.58031607099338</v>
       </c>
       <c r="J20">
-        <v>-926.3212177846456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>-926.32121778464557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B21">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C21">
         <v>-786.3737062495295</v>
       </c>
       <c r="D21">
-        <v>-893.8536473203596</v>
+        <v>-893.85364732035964</v>
       </c>
       <c r="E21">
         <v>-888.9463612966515</v>
       </c>
       <c r="F21">
-        <v>-886.5385244101394</v>
+        <v>-886.53852441013942</v>
       </c>
       <c r="G21">
-        <v>-894.5752503986785</v>
+        <v>-894.57525039867846</v>
       </c>
       <c r="H21">
-        <v>-959.6383699768846</v>
+        <v>-959.63836997688463</v>
       </c>
       <c r="I21">
-        <v>-858.5829095040414</v>
+        <v>-858.58290950404137</v>
       </c>
       <c r="J21">
-        <v>-927.4155147866674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>-927.41551478666736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B22">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C22">
         <v>-786.4860060331755</v>
@@ -1093,2582 +1145,2582 @@
         <v>-894.4658968595927</v>
       </c>
       <c r="E22">
-        <v>-888.9485961396467</v>
+        <v>-888.94859613964672</v>
       </c>
       <c r="F22">
-        <v>-890.1853408282319</v>
+        <v>-890.18534082823192</v>
       </c>
       <c r="G22">
-        <v>-894.5752503986785</v>
+        <v>-894.57525039867846</v>
       </c>
       <c r="H22">
-        <v>-959.6383699768846</v>
+        <v>-959.63836997688463</v>
       </c>
       <c r="I22">
         <v>-858.6006192858847</v>
       </c>
       <c r="J22">
-        <v>-929.6235587538504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>-929.62355875385038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B23">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C23">
-        <v>-786.5114777147937</v>
+        <v>-786.51147771479373</v>
       </c>
       <c r="D23">
         <v>-894.4658968595927</v>
       </c>
       <c r="E23">
-        <v>-888.9489229642007</v>
+        <v>-888.94892296420073</v>
       </c>
       <c r="F23">
-        <v>-890.5091588390505</v>
+        <v>-890.50915883905054</v>
       </c>
       <c r="G23">
-        <v>-894.5752503986785</v>
+        <v>-894.57525039867846</v>
       </c>
       <c r="H23">
-        <v>-959.6383699768846</v>
+        <v>-959.63836997688463</v>
       </c>
       <c r="I23">
         <v>-858.6006192858847</v>
       </c>
       <c r="J23">
-        <v>-929.9787477390357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>-929.97874773903573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>-821.1964376832254</v>
+        <v>-821.19643768322544</v>
       </c>
       <c r="B24">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C24">
-        <v>-786.5225798571389</v>
+        <v>-786.52257985713891</v>
       </c>
       <c r="D24">
-        <v>-894.5541536346946</v>
+        <v>-894.55415363469456</v>
       </c>
       <c r="E24">
-        <v>-888.9489229642007</v>
+        <v>-888.94892296420073</v>
       </c>
       <c r="F24">
-        <v>-890.9794280199046</v>
+        <v>-890.97942801990462</v>
       </c>
       <c r="G24">
-        <v>-894.5752503986785</v>
+        <v>-894.57525039867846</v>
       </c>
       <c r="H24">
-        <v>-959.6391428335764</v>
+        <v>-959.63914283357644</v>
       </c>
       <c r="I24">
-        <v>-858.60115577789</v>
+        <v>-858.60115577788997</v>
       </c>
       <c r="J24">
         <v>-933.5975879258749</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>-821.19644243538</v>
+        <v>-821.19644243538005</v>
       </c>
       <c r="B25">
-        <v>-959.6406607893659</v>
+        <v>-959.64066078936594</v>
       </c>
       <c r="C25">
-        <v>-786.5225798571389</v>
+        <v>-786.52257985713891</v>
       </c>
       <c r="D25">
-        <v>-894.5541536346946</v>
+        <v>-894.55415363469456</v>
       </c>
       <c r="E25">
-        <v>-888.9489677990041</v>
+        <v>-888.94896779900409</v>
       </c>
       <c r="F25">
-        <v>-891.6556501279904</v>
+        <v>-891.65565012799038</v>
       </c>
       <c r="G25">
-        <v>-894.5752503986785</v>
+        <v>-894.57525039867846</v>
       </c>
       <c r="H25">
-        <v>-959.6402198032445</v>
+        <v>-959.64021980324446</v>
       </c>
       <c r="I25">
-        <v>-858.60115577789</v>
+        <v>-858.60115577788997</v>
       </c>
       <c r="J25">
         <v>-933.5975879258749</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>-821.1964468535933</v>
+        <v>-821.19644685359333</v>
       </c>
       <c r="B26">
-        <v>-959.6406620423879</v>
+        <v>-959.64066204238793</v>
       </c>
       <c r="C26">
         <v>-786.5257052647919</v>
       </c>
       <c r="D26">
-        <v>-894.5727627396859</v>
+        <v>-894.57276273968591</v>
       </c>
       <c r="E26">
-        <v>-888.9489677990041</v>
+        <v>-888.94896779900409</v>
       </c>
       <c r="F26">
-        <v>-892.2506886531037</v>
+        <v>-892.25068865310368</v>
       </c>
       <c r="G26">
-        <v>-894.5767483467191</v>
+        <v>-894.57674834671911</v>
       </c>
       <c r="H26">
-        <v>-959.6402198032445</v>
+        <v>-959.64021980324446</v>
       </c>
       <c r="I26">
-        <v>-858.60115577789</v>
+        <v>-858.60115577788997</v>
       </c>
       <c r="J26">
         <v>-933.5975879258749</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>-821.1964468535933</v>
+        <v>-821.19644685359333</v>
       </c>
       <c r="B27">
-        <v>-959.6406620423879</v>
+        <v>-959.64066204238793</v>
       </c>
       <c r="C27">
         <v>-786.5257052647919</v>
       </c>
       <c r="D27">
-        <v>-894.5727627396859</v>
+        <v>-894.57276273968591</v>
       </c>
       <c r="E27">
-        <v>-888.949063682984</v>
+        <v>-888.94906368298405</v>
       </c>
       <c r="F27">
-        <v>-894.5756182337379</v>
+        <v>-894.57561823373794</v>
       </c>
       <c r="G27">
-        <v>-894.5781383669284</v>
+        <v>-894.57813836692844</v>
       </c>
       <c r="H27">
         <v>-959.6405663715525</v>
       </c>
       <c r="I27">
-        <v>-858.60115577789</v>
+        <v>-858.60115577788997</v>
       </c>
       <c r="J27">
         <v>-935.2127184055704</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>-821.1964468535933</v>
+        <v>-821.19644685359333</v>
       </c>
       <c r="B28">
-        <v>-959.6406620423879</v>
+        <v>-959.64066204238793</v>
       </c>
       <c r="C28">
         <v>-786.5257052647919</v>
       </c>
       <c r="D28">
-        <v>-894.5735763588497</v>
+        <v>-894.57357635884966</v>
       </c>
       <c r="E28">
-        <v>-888.949063682984</v>
+        <v>-888.94906368298405</v>
       </c>
       <c r="F28">
-        <v>-894.5756182337379</v>
+        <v>-894.57561823373794</v>
       </c>
       <c r="G28">
-        <v>-894.5781383669284</v>
+        <v>-894.57813836692844</v>
       </c>
       <c r="H28">
-        <v>-959.64062992767</v>
+        <v>-959.64062992767003</v>
       </c>
       <c r="I28">
-        <v>-858.60121326284</v>
+        <v>-858.60121326284002</v>
       </c>
       <c r="J28">
         <v>-935.2127184055704</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>-821.1964609783934</v>
+        <v>-821.19646097839336</v>
       </c>
       <c r="B29">
-        <v>-959.6406620423879</v>
+        <v>-959.64066204238793</v>
       </c>
       <c r="C29">
-        <v>-786.525960843982</v>
+        <v>-786.52596084398203</v>
       </c>
       <c r="D29">
-        <v>-894.5735763588497</v>
+        <v>-894.57357635884966</v>
       </c>
       <c r="E29">
-        <v>-888.9490786056235</v>
+        <v>-888.94907860562353</v>
       </c>
       <c r="F29">
-        <v>-894.5756182337379</v>
+        <v>-894.57561823373794</v>
       </c>
       <c r="G29">
-        <v>-894.5781383669284</v>
+        <v>-894.57813836692844</v>
       </c>
       <c r="H29">
-        <v>-959.64062992767</v>
+        <v>-959.64062992767003</v>
       </c>
       <c r="I29">
-        <v>-874.7038852699546</v>
+        <v>-874.70388526995464</v>
       </c>
       <c r="J29">
         <v>-935.2127184055704</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>-821.1964609783934</v>
+        <v>-821.19646097839336</v>
       </c>
       <c r="B30">
-        <v>-959.6406620423879</v>
+        <v>-959.64066204238793</v>
       </c>
       <c r="C30">
-        <v>-786.525960843982</v>
+        <v>-786.52596084398203</v>
       </c>
       <c r="D30">
-        <v>-894.5775683072104</v>
+        <v>-894.57756830721041</v>
       </c>
       <c r="E30">
-        <v>-888.9491230318794</v>
+        <v>-888.94912303187937</v>
       </c>
       <c r="F30">
-        <v>-894.5756182337379</v>
+        <v>-894.57561823373794</v>
       </c>
       <c r="G30">
-        <v>-894.5787034974248</v>
+        <v>-894.57870349742484</v>
       </c>
       <c r="H30">
-        <v>-959.64062992767</v>
+        <v>-959.64062992767003</v>
       </c>
       <c r="I30">
-        <v>-888.0152870976144</v>
+        <v>-888.01528709761442</v>
       </c>
       <c r="J30">
-        <v>-935.3164919641</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>-935.31649196410001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>-821.1964609783934</v>
+        <v>-821.19646097839336</v>
       </c>
       <c r="B31">
-        <v>-959.6406624387955</v>
+        <v>-959.64066243879552</v>
       </c>
       <c r="C31">
-        <v>-786.525960843982</v>
+        <v>-786.52596084398203</v>
       </c>
       <c r="D31">
         <v>-894.5784628066524</v>
       </c>
       <c r="E31">
-        <v>-888.9491230318794</v>
+        <v>-888.94912303187937</v>
       </c>
       <c r="F31">
-        <v>-894.5756182337379</v>
+        <v>-894.57561823373794</v>
       </c>
       <c r="G31">
-        <v>-894.5787034974248</v>
+        <v>-894.57870349742484</v>
       </c>
       <c r="H31">
-        <v>-959.64062992767</v>
+        <v>-959.64062992767003</v>
       </c>
       <c r="I31">
-        <v>-888.7196408037519</v>
+        <v>-888.71964080375187</v>
       </c>
       <c r="J31">
-        <v>-935.3164919641</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>-935.31649196410001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>-821.1964609783934</v>
+        <v>-821.19646097839336</v>
       </c>
       <c r="B32">
-        <v>-959.6406627024771</v>
+        <v>-959.64066270247713</v>
       </c>
       <c r="C32">
-        <v>-786.5259909247449</v>
+        <v>-786.52599092474486</v>
       </c>
       <c r="D32">
-        <v>-894.5784936686171</v>
+        <v>-894.57849366861706</v>
       </c>
       <c r="E32">
-        <v>-888.9491246907551</v>
+        <v>-888.94912469075507</v>
       </c>
       <c r="F32">
-        <v>-894.5756182337379</v>
+        <v>-894.57561823373794</v>
       </c>
       <c r="G32">
-        <v>-894.5787034974248</v>
+        <v>-894.57870349742484</v>
       </c>
       <c r="H32">
-        <v>-959.6406357898853</v>
+        <v>-959.64063578988532</v>
       </c>
       <c r="I32">
-        <v>-888.8481959724668</v>
+        <v>-888.84819597246678</v>
       </c>
       <c r="J32">
-        <v>-935.3205424172468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>-935.32054241724677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>-821.1964609783934</v>
+        <v>-821.19646097839336</v>
       </c>
       <c r="B33">
-        <v>-959.6406627024771</v>
+        <v>-959.64066270247713</v>
       </c>
       <c r="C33">
-        <v>-786.5259909247449</v>
+        <v>-786.52599092474486</v>
       </c>
       <c r="D33">
-        <v>-894.5788609281699</v>
+        <v>-894.57886092816989</v>
       </c>
       <c r="E33">
-        <v>-888.9491250350486</v>
+        <v>-888.94912503504861</v>
       </c>
       <c r="F33">
-        <v>-894.5775502479077</v>
+        <v>-894.57755024790765</v>
       </c>
       <c r="G33">
-        <v>-894.5788363811052</v>
+        <v>-894.57883638110525</v>
       </c>
       <c r="H33">
-        <v>-959.640659924723</v>
+        <v>-959.64065992472297</v>
       </c>
       <c r="I33">
-        <v>-888.8991021969908</v>
+        <v>-888.89910219699084</v>
       </c>
       <c r="J33">
-        <v>-935.3318217395948</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>-935.33182173959483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>-821.1964610325435</v>
+        <v>-821.19646103254354</v>
       </c>
       <c r="B34">
-        <v>-959.6406627155284</v>
+        <v>-959.64066271552838</v>
       </c>
       <c r="C34">
-        <v>-786.5259909247449</v>
+        <v>-786.52599092474486</v>
       </c>
       <c r="D34">
-        <v>-894.5788996489048</v>
+        <v>-894.57889964890478</v>
       </c>
       <c r="E34">
-        <v>-888.9491250350486</v>
+        <v>-888.94912503504861</v>
       </c>
       <c r="F34">
-        <v>-894.5775502479077</v>
+        <v>-894.57755024790765</v>
       </c>
       <c r="G34">
-        <v>-894.5788889862914</v>
+        <v>-894.57888898629142</v>
       </c>
       <c r="H34">
-        <v>-959.6406622666254</v>
+        <v>-959.64066226662544</v>
       </c>
       <c r="I34">
-        <v>-888.8991021969908</v>
+        <v>-888.89910219699084</v>
       </c>
       <c r="J34">
-        <v>-935.3373073238427</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>-935.33730732384265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>-821.1964610325435</v>
+        <v>-821.19646103254354</v>
       </c>
       <c r="B35">
-        <v>-959.6406627155284</v>
+        <v>-959.64066271552838</v>
       </c>
       <c r="C35">
-        <v>-786.5259909247449</v>
+        <v>-786.52599092474486</v>
       </c>
       <c r="D35">
-        <v>-894.5788996489048</v>
+        <v>-894.57889964890478</v>
       </c>
       <c r="E35">
-        <v>-888.9491252361587</v>
+        <v>-888.94912523615869</v>
       </c>
       <c r="F35">
-        <v>-894.5775502479077</v>
+        <v>-894.57755024790765</v>
       </c>
       <c r="G35">
-        <v>-894.578896663947</v>
+        <v>-894.57889666394703</v>
       </c>
       <c r="H35">
-        <v>-959.6406626277376</v>
+        <v>-959.64066262773758</v>
       </c>
       <c r="I35">
-        <v>-888.9290259380751</v>
+        <v>-888.92902593807514</v>
       </c>
       <c r="J35">
-        <v>-935.3373073238427</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>-935.33730732384265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>-821.1964610644764</v>
+        <v>-821.19646106447635</v>
       </c>
       <c r="B36">
-        <v>-959.6406627160275</v>
+        <v>-959.64066271602746</v>
       </c>
       <c r="C36">
-        <v>-786.5259909247449</v>
+        <v>-786.52599092474486</v>
       </c>
       <c r="D36">
-        <v>-894.5788996489048</v>
+        <v>-894.57889964890478</v>
       </c>
       <c r="E36">
-        <v>-888.9491252361587</v>
+        <v>-888.94912523615869</v>
       </c>
       <c r="F36">
-        <v>-894.5781621817274</v>
+        <v>-894.57816218172741</v>
       </c>
       <c r="G36">
-        <v>-894.5788998498068</v>
+        <v>-894.57889984980682</v>
       </c>
       <c r="H36">
-        <v>-959.6406626277376</v>
+        <v>-959.64066262773758</v>
       </c>
       <c r="I36">
-        <v>-888.9290259380751</v>
+        <v>-888.92902593807514</v>
       </c>
       <c r="J36">
-        <v>-935.3373073238427</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>-935.33730732384265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>-821.1964610654836</v>
+        <v>-821.19646106548362</v>
       </c>
       <c r="B37">
-        <v>-959.6406627160275</v>
+        <v>-959.64066271602746</v>
       </c>
       <c r="C37">
-        <v>-786.5259914510038</v>
+        <v>-786.52599145100385</v>
       </c>
       <c r="D37">
-        <v>-894.5788996489048</v>
+        <v>-894.57889964890478</v>
       </c>
       <c r="E37">
-        <v>-888.9491252361587</v>
+        <v>-888.94912523615869</v>
       </c>
       <c r="F37">
-        <v>-894.5786043366365</v>
+        <v>-894.57860433663654</v>
       </c>
       <c r="G37">
-        <v>-894.5788998498068</v>
+        <v>-894.57889984980682</v>
       </c>
       <c r="H37">
-        <v>-959.6406626277376</v>
+        <v>-959.64066262773758</v>
       </c>
       <c r="I37">
-        <v>-888.9456701363983</v>
+        <v>-888.94567013639835</v>
       </c>
       <c r="J37">
-        <v>-935.3375414735335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>-935.33754147353352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>-821.196461066103</v>
+        <v>-821.19646106610298</v>
       </c>
       <c r="B38">
-        <v>-959.6406627166245</v>
+        <v>-959.64066271662455</v>
       </c>
       <c r="C38">
-        <v>-786.5259925611338</v>
+        <v>-786.52599256113376</v>
       </c>
       <c r="D38">
-        <v>-894.578900192939</v>
+        <v>-894.57890019293905</v>
       </c>
       <c r="E38">
-        <v>-888.9491252579886</v>
+        <v>-888.94912525798861</v>
       </c>
       <c r="F38">
-        <v>-894.5786043366365</v>
+        <v>-894.57860433663654</v>
       </c>
       <c r="G38">
-        <v>-894.5789002173576</v>
+        <v>-894.57890021735761</v>
       </c>
       <c r="H38">
-        <v>-959.6406627055694</v>
+        <v>-959.64066270556941</v>
       </c>
       <c r="I38">
-        <v>-888.9486468649893</v>
+        <v>-888.94864686498931</v>
       </c>
       <c r="J38">
-        <v>-935.3379445945529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>-935.33794459455294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>-821.1964610661994</v>
+        <v>-821.19646106619939</v>
       </c>
       <c r="B39">
         <v>-959.6406627208446</v>
       </c>
       <c r="C39">
-        <v>-786.525992646342</v>
+        <v>-786.52599264634205</v>
       </c>
       <c r="D39">
-        <v>-894.578900277416</v>
+        <v>-894.57890027741598</v>
       </c>
       <c r="E39">
         <v>-888.9491252646842</v>
       </c>
       <c r="F39">
-        <v>-894.5786043366365</v>
+        <v>-894.57860433663654</v>
       </c>
       <c r="G39">
-        <v>-894.5789003838855</v>
+        <v>-894.57890038388553</v>
       </c>
       <c r="H39">
-        <v>-959.6406627098949</v>
+        <v>-959.64066270989485</v>
       </c>
       <c r="I39">
-        <v>-888.9490331648608</v>
+        <v>-888.94903316486079</v>
       </c>
       <c r="J39">
-        <v>-935.3379445945529</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>-935.33794459455294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>-821.1964610661994</v>
+        <v>-821.19646106619939</v>
       </c>
       <c r="B40">
-        <v>-959.6406627208469</v>
+        <v>-959.64066272084688</v>
       </c>
       <c r="C40">
         <v>-786.5259935567351</v>
       </c>
       <c r="D40">
-        <v>-894.578900277416</v>
+        <v>-894.57890027741598</v>
       </c>
       <c r="E40">
-        <v>-888.9491252657585</v>
+        <v>-888.94912526575854</v>
       </c>
       <c r="F40">
-        <v>-894.578693293201</v>
+        <v>-894.57869329320101</v>
       </c>
       <c r="G40">
-        <v>-894.5789003838855</v>
+        <v>-894.57890038388553</v>
       </c>
       <c r="H40">
-        <v>-959.6406627178692</v>
+        <v>-959.64066271786919</v>
       </c>
       <c r="I40">
-        <v>-888.9490756805235</v>
+        <v>-888.94907568052349</v>
       </c>
       <c r="J40">
-        <v>-935.3379445945529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>-935.33794459455294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>-821.1964610663083</v>
       </c>
       <c r="B41">
-        <v>-959.6406627208469</v>
+        <v>-959.64066272084688</v>
       </c>
       <c r="C41">
-        <v>-786.5259939352475</v>
+        <v>-786.52599393524747</v>
       </c>
       <c r="D41">
-        <v>-894.578900277416</v>
+        <v>-894.57890027741598</v>
       </c>
       <c r="E41">
         <v>-888.9491252697228</v>
       </c>
       <c r="F41">
-        <v>-894.5788706199498</v>
+        <v>-894.57887061994984</v>
       </c>
       <c r="G41">
-        <v>-894.57890038765</v>
+        <v>-894.57890038765004</v>
       </c>
       <c r="H41">
-        <v>-959.6406627208414</v>
+        <v>-959.64066272084142</v>
       </c>
       <c r="I41">
-        <v>-888.9491061147032</v>
+        <v>-888.94910611470323</v>
       </c>
       <c r="J41">
-        <v>-935.3379445945529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>-935.33794459455294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>-821.1964610663113</v>
+        <v>-821.19646106631126</v>
       </c>
       <c r="B42">
-        <v>-959.6406627208469</v>
+        <v>-959.64066272084688</v>
       </c>
       <c r="C42">
-        <v>-786.5259940016658</v>
+        <v>-786.52599400166582</v>
       </c>
       <c r="D42">
-        <v>-894.578900277416</v>
+        <v>-894.57890027741598</v>
       </c>
       <c r="E42">
-        <v>-888.9491252698303</v>
+        <v>-888.94912526983035</v>
       </c>
       <c r="F42">
-        <v>-894.5788706199498</v>
+        <v>-894.57887061994984</v>
       </c>
       <c r="G42">
-        <v>-894.57890038765</v>
+        <v>-894.57890038765004</v>
       </c>
       <c r="H42">
-        <v>-959.6406627208414</v>
+        <v>-959.64066272084142</v>
       </c>
       <c r="I42">
-        <v>-888.9491061147032</v>
+        <v>-888.94910611470323</v>
       </c>
       <c r="J42">
-        <v>-935.3379511215961</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>-935.33795112159612</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>-821.1964610663113</v>
+        <v>-821.19646106631126</v>
       </c>
       <c r="B43">
-        <v>-959.6406627208469</v>
+        <v>-959.64066272084688</v>
       </c>
       <c r="C43">
-        <v>-786.5259940016658</v>
+        <v>-786.52599400166582</v>
       </c>
       <c r="D43">
-        <v>-894.5789003434446</v>
+        <v>-894.57890034344462</v>
       </c>
       <c r="E43">
-        <v>-888.9491252698303</v>
+        <v>-888.94912526983035</v>
       </c>
       <c r="F43">
-        <v>-894.5788968352038</v>
+        <v>-894.57889683520375</v>
       </c>
       <c r="G43">
-        <v>-894.57890038765</v>
+        <v>-894.57890038765004</v>
       </c>
       <c r="H43">
-        <v>-959.6406627208414</v>
+        <v>-959.64066272084142</v>
       </c>
       <c r="I43">
-        <v>-888.9491061147032</v>
+        <v>-888.94910611470323</v>
       </c>
       <c r="J43">
-        <v>-935.3379511215961</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>-935.33795112159612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>-821.1964610663133</v>
       </c>
       <c r="B44">
-        <v>-959.6406627208509</v>
+        <v>-959.64066272085086</v>
       </c>
       <c r="C44">
-        <v>-786.5259940732249</v>
+        <v>-786.52599407322487</v>
       </c>
       <c r="D44">
-        <v>-894.5789003434446</v>
+        <v>-894.57890034344462</v>
       </c>
       <c r="E44">
-        <v>-888.9491252698303</v>
+        <v>-888.94912526983035</v>
       </c>
       <c r="F44">
-        <v>-894.5788996245117</v>
+        <v>-894.57889962451168</v>
       </c>
       <c r="G44">
-        <v>-894.57890038765</v>
+        <v>-894.57890038765004</v>
       </c>
       <c r="H44">
-        <v>-959.6406627208414</v>
+        <v>-959.64066272084142</v>
       </c>
       <c r="I44">
-        <v>-888.949121986549</v>
+        <v>-888.94912198654902</v>
       </c>
       <c r="J44">
-        <v>-935.3379512617075</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>-935.33795126170753</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>-821.1964610663133</v>
       </c>
       <c r="B45">
-        <v>-959.6406627208509</v>
+        <v>-959.64066272085086</v>
       </c>
       <c r="C45">
-        <v>-786.5259940732249</v>
+        <v>-786.52599407322487</v>
       </c>
       <c r="D45">
-        <v>-894.5789003769532</v>
+        <v>-894.57890037695324</v>
       </c>
       <c r="E45">
-        <v>-888.9491252698303</v>
+        <v>-888.94912526983035</v>
       </c>
       <c r="F45">
-        <v>-894.5788996245117</v>
+        <v>-894.57889962451168</v>
       </c>
       <c r="G45">
-        <v>-894.5789003884157</v>
+        <v>-894.57890038841572</v>
       </c>
       <c r="H45">
-        <v>-959.6406627208414</v>
+        <v>-959.64066272084142</v>
       </c>
       <c r="I45">
-        <v>-888.949124585276</v>
+        <v>-888.94912458527597</v>
       </c>
       <c r="J45">
-        <v>-935.3379515184902</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>-935.33795151849017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>-821.1964610663133</v>
       </c>
       <c r="B46">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C46">
-        <v>-786.5259940732249</v>
+        <v>-786.52599407322487</v>
       </c>
       <c r="D46">
-        <v>-894.5789003904566</v>
+        <v>-894.57890039045662</v>
       </c>
       <c r="E46">
-        <v>-888.9491252698344</v>
+        <v>-888.94912526983444</v>
       </c>
       <c r="F46">
-        <v>-894.5789002030476</v>
+        <v>-894.57890020304762</v>
       </c>
       <c r="G46">
-        <v>-894.5789003886237</v>
+        <v>-894.57890038862365</v>
       </c>
       <c r="H46">
-        <v>-959.6406627208414</v>
+        <v>-959.64066272084142</v>
       </c>
       <c r="I46">
-        <v>-888.949124585276</v>
+        <v>-888.94912458527597</v>
       </c>
       <c r="J46">
-        <v>-935.3379515184902</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>-935.33795151849017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>-821.1964610663133</v>
       </c>
       <c r="B47">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C47">
-        <v>-786.5259940732249</v>
+        <v>-786.52599407322487</v>
       </c>
       <c r="D47">
-        <v>-894.5789003904566</v>
+        <v>-894.57890039045662</v>
       </c>
       <c r="E47">
         <v>-888.9491252698374</v>
       </c>
       <c r="F47">
-        <v>-894.5789002447133</v>
+        <v>-894.57890024471328</v>
       </c>
       <c r="G47">
-        <v>-894.578900389845</v>
+        <v>-894.57890038984499</v>
       </c>
       <c r="H47">
         <v>-959.6406627208504</v>
       </c>
       <c r="I47">
-        <v>-888.949124585276</v>
+        <v>-888.94912458527597</v>
       </c>
       <c r="J47">
-        <v>-935.3379515416436</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>-935.33795154164363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>-821.1964610663138</v>
+        <v>-821.19646106631376</v>
       </c>
       <c r="B48">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C48">
-        <v>-786.5259940749445</v>
+        <v>-786.52599407494449</v>
       </c>
       <c r="D48">
-        <v>-894.5789003905514</v>
+        <v>-894.57890039055144</v>
       </c>
       <c r="E48">
-        <v>-888.9491252698724</v>
+        <v>-888.94912526987241</v>
       </c>
       <c r="F48">
-        <v>-894.5789003185794</v>
+        <v>-894.57890031857937</v>
       </c>
       <c r="G48">
-        <v>-894.5789003902146</v>
+        <v>-894.57890039021459</v>
       </c>
       <c r="H48">
         <v>-959.6406627208504</v>
       </c>
       <c r="I48">
-        <v>-888.9491250137719</v>
+        <v>-888.94912501377189</v>
       </c>
       <c r="J48">
-        <v>-935.3379515416436</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>-935.33795154164363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>-821.1964610663139</v>
+        <v>-821.19646106631387</v>
       </c>
       <c r="B49">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C49">
-        <v>-786.5259940749445</v>
+        <v>-786.52599407494449</v>
       </c>
       <c r="D49">
-        <v>-894.5789003905514</v>
+        <v>-894.57890039055144</v>
       </c>
       <c r="E49">
-        <v>-888.9491252698899</v>
+        <v>-888.94912526988992</v>
       </c>
       <c r="F49">
-        <v>-894.5789003185794</v>
+        <v>-894.57890031857937</v>
       </c>
       <c r="G49">
-        <v>-894.5789003903726</v>
+        <v>-894.57890039037261</v>
       </c>
       <c r="H49">
-        <v>-959.6406627208507</v>
+        <v>-959.64066272085074</v>
       </c>
       <c r="I49">
-        <v>-888.9491250137719</v>
+        <v>-888.94912501377189</v>
       </c>
       <c r="J49">
-        <v>-935.3379515426404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>-935.33795154264044</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>-821.1964610663139</v>
+        <v>-821.19646106631387</v>
       </c>
       <c r="B50">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C50">
-        <v>-786.5259940776529</v>
+        <v>-786.52599407765285</v>
       </c>
       <c r="D50">
-        <v>-894.578900390583</v>
+        <v>-894.57890039058304</v>
       </c>
       <c r="E50">
-        <v>-888.9491252698915</v>
+        <v>-888.94912526989151</v>
       </c>
       <c r="F50">
-        <v>-894.5789003185794</v>
+        <v>-894.57890031857937</v>
       </c>
       <c r="G50">
-        <v>-894.5789003905047</v>
+        <v>-894.57890039050471</v>
       </c>
       <c r="H50">
-        <v>-959.6406627208509</v>
+        <v>-959.64066272085086</v>
       </c>
       <c r="I50">
-        <v>-888.9491252129823</v>
+        <v>-888.94912521298227</v>
       </c>
       <c r="J50">
-        <v>-935.3379515506691</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>-935.33795155066912</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>-821.1964610663139</v>
+        <v>-821.19646106631387</v>
       </c>
       <c r="B51">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C51">
-        <v>-786.5259940782622</v>
+        <v>-786.52599407826222</v>
       </c>
       <c r="D51">
-        <v>-894.5789003905867</v>
+        <v>-894.57890039058668</v>
       </c>
       <c r="E51">
-        <v>-888.9491252698917</v>
+        <v>-888.94912526989174</v>
       </c>
       <c r="F51">
-        <v>-894.5789003218142</v>
+        <v>-894.57890032181422</v>
       </c>
       <c r="G51">
-        <v>-894.5789003905949</v>
+        <v>-894.57890039059487</v>
       </c>
       <c r="H51">
-        <v>-959.6406627208509</v>
+        <v>-959.64066272085086</v>
       </c>
       <c r="I51">
-        <v>-888.9491252650291</v>
+        <v>-888.94912526502912</v>
       </c>
       <c r="J51">
         <v>-935.33795155239</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="B52">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C52">
-        <v>-786.5259940787278</v>
+        <v>-786.52599407872776</v>
       </c>
       <c r="D52">
-        <v>-894.578900390587</v>
+        <v>-894.57890039058702</v>
       </c>
       <c r="E52">
-        <v>-888.9491252698917</v>
+        <v>-888.94912526989174</v>
       </c>
       <c r="F52">
-        <v>-894.5789003801988</v>
+        <v>-894.57890038019877</v>
       </c>
       <c r="G52">
-        <v>-894.5789003905949</v>
+        <v>-894.57890039059487</v>
       </c>
       <c r="H52">
-        <v>-959.6406627208509</v>
+        <v>-959.64066272085086</v>
       </c>
       <c r="I52">
-        <v>-888.9491252650291</v>
+        <v>-888.94912526502912</v>
       </c>
       <c r="J52">
-        <v>-935.337951558314</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>-935.33795155831399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="B53">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C53">
-        <v>-786.5259940787942</v>
+        <v>-786.52599407879416</v>
       </c>
       <c r="D53">
-        <v>-894.578900390587</v>
+        <v>-894.57890039058702</v>
       </c>
       <c r="E53">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F53">
-        <v>-894.5789003896824</v>
+        <v>-894.57890038968242</v>
       </c>
       <c r="G53">
-        <v>-894.5789003905985</v>
+        <v>-894.57890039059851</v>
       </c>
       <c r="H53">
-        <v>-959.6406627208509</v>
+        <v>-959.64066272085086</v>
       </c>
       <c r="I53">
-        <v>-888.9491252693668</v>
+        <v>-888.94912526936685</v>
       </c>
       <c r="J53">
-        <v>-935.3379515598285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>-935.33795155982853</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="B54">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C54">
-        <v>-786.5259940788455</v>
+        <v>-786.52599407884554</v>
       </c>
       <c r="D54">
-        <v>-894.578900390587</v>
+        <v>-894.57890039058702</v>
       </c>
       <c r="E54">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F54">
-        <v>-894.5789003896824</v>
+        <v>-894.57890038968242</v>
       </c>
       <c r="G54">
-        <v>-894.5789003905985</v>
+        <v>-894.57890039059851</v>
       </c>
       <c r="H54">
-        <v>-959.6406627208509</v>
+        <v>-959.64066272085086</v>
       </c>
       <c r="I54">
-        <v>-888.9491252693668</v>
+        <v>-888.94912526936685</v>
       </c>
       <c r="J54">
-        <v>-935.3379515602742</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>-935.33795156027418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B55">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C55">
-        <v>-786.5259940788681</v>
+        <v>-786.52599407886805</v>
       </c>
       <c r="D55">
-        <v>-894.5789003905921</v>
+        <v>-894.57890039059214</v>
       </c>
       <c r="E55">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F55">
-        <v>-894.5789003905567</v>
+        <v>-894.57890039055667</v>
       </c>
       <c r="G55">
-        <v>-894.5789003905985</v>
+        <v>-894.57890039059851</v>
       </c>
       <c r="H55">
-        <v>-959.6406627208509</v>
+        <v>-959.64066272085086</v>
       </c>
       <c r="I55">
-        <v>-888.9491252693668</v>
+        <v>-888.94912526936685</v>
       </c>
       <c r="J55">
-        <v>-935.3379515602742</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>-935.33795156027418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B56">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C56">
-        <v>-786.5259940788681</v>
+        <v>-786.52599407886805</v>
       </c>
       <c r="D56">
-        <v>-894.5789003905984</v>
+        <v>-894.57890039059839</v>
       </c>
       <c r="E56">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F56">
-        <v>-894.5789003905567</v>
+        <v>-894.57890039055667</v>
       </c>
       <c r="G56">
-        <v>-894.5789003905995</v>
+        <v>-894.57890039059953</v>
       </c>
       <c r="H56">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I56">
-        <v>-888.9491252693668</v>
+        <v>-888.94912526936685</v>
       </c>
       <c r="J56">
-        <v>-935.337951560574</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>-935.33795156057397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B57">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C57">
-        <v>-786.5259940788681</v>
+        <v>-786.52599407886805</v>
       </c>
       <c r="D57">
-        <v>-894.5789003905987</v>
+        <v>-894.57890039059873</v>
       </c>
       <c r="E57">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F57">
-        <v>-894.5789003905811</v>
+        <v>-894.57890039058111</v>
       </c>
       <c r="G57">
-        <v>-894.5789003905999</v>
+        <v>-894.57890039059987</v>
       </c>
       <c r="H57">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I57">
-        <v>-888.9491252698074</v>
+        <v>-888.94912526980738</v>
       </c>
       <c r="J57">
-        <v>-935.337951560574</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>-935.33795156057397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B58">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C58">
-        <v>-786.5259940788687</v>
+        <v>-786.52599407886873</v>
       </c>
       <c r="D58">
-        <v>-894.5789003905998</v>
+        <v>-894.57890039059976</v>
       </c>
       <c r="E58">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F58">
-        <v>-894.5789003905811</v>
+        <v>-894.57890039058111</v>
       </c>
       <c r="G58">
-        <v>-894.5789003905999</v>
+        <v>-894.57890039059987</v>
       </c>
       <c r="H58">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I58">
-        <v>-888.949125269831</v>
+        <v>-888.94912526983103</v>
       </c>
       <c r="J58">
-        <v>-935.337951560574</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>-935.33795156057397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B59">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C59">
-        <v>-786.5259940788694</v>
+        <v>-786.52599407886942</v>
       </c>
       <c r="D59">
-        <v>-894.5789003905998</v>
+        <v>-894.57890039059976</v>
       </c>
       <c r="E59">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F59">
-        <v>-894.5789003905821</v>
+        <v>-894.57890039058213</v>
       </c>
       <c r="G59">
-        <v>-894.5789003905999</v>
+        <v>-894.57890039059987</v>
       </c>
       <c r="H59">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I59">
-        <v>-888.9491252698496</v>
+        <v>-888.94912526984956</v>
       </c>
       <c r="J59">
-        <v>-935.337951560574</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>-935.33795156057397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B60">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C60">
-        <v>-786.5259940788694</v>
+        <v>-786.52599407886942</v>
       </c>
       <c r="D60">
-        <v>-894.5789003905998</v>
+        <v>-894.57890039059976</v>
       </c>
       <c r="E60">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F60">
-        <v>-894.5789003905957</v>
+        <v>-894.57890039059566</v>
       </c>
       <c r="G60">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H60">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I60">
         <v>-888.949125269859</v>
       </c>
       <c r="J60">
-        <v>-935.337951560574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>-935.33795156057397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B61">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C61">
-        <v>-786.5259940788699</v>
+        <v>-786.52599407886987</v>
       </c>
       <c r="D61">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E61">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F61">
-        <v>-894.5789003905957</v>
+        <v>-894.57890039059566</v>
       </c>
       <c r="G61">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H61">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I61">
-        <v>-888.9491252698776</v>
+        <v>-888.94912526987764</v>
       </c>
       <c r="J61">
-        <v>-935.3379515605793</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>-935.33795156057931</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B62">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C62">
-        <v>-786.5259940788699</v>
+        <v>-786.52599407886987</v>
       </c>
       <c r="D62">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E62">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F62">
-        <v>-894.5789003905995</v>
+        <v>-894.57890039059953</v>
       </c>
       <c r="G62">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H62">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I62">
-        <v>-888.9491252698911</v>
+        <v>-888.94912526989106</v>
       </c>
       <c r="J62">
-        <v>-935.3379515605793</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>-935.33795156057931</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B63">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C63">
-        <v>-786.5259940788699</v>
+        <v>-786.52599407886987</v>
       </c>
       <c r="D63">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E63">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F63">
-        <v>-894.5789003905995</v>
+        <v>-894.57890039059953</v>
       </c>
       <c r="G63">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H63">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I63">
-        <v>-888.9491252698915</v>
+        <v>-888.94912526989151</v>
       </c>
       <c r="J63">
-        <v>-935.3379515605793</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>-935.33795156057931</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B64">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C64">
-        <v>-786.5259940788699</v>
+        <v>-786.52599407886987</v>
       </c>
       <c r="D64">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E64">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F64">
-        <v>-894.5789003905998</v>
+        <v>-894.57890039059976</v>
       </c>
       <c r="G64">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H64">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I64">
-        <v>-888.9491252698919</v>
+        <v>-888.94912526989185</v>
       </c>
       <c r="J64">
-        <v>-935.3379515605795</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>-935.33795156057954</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B65">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C65">
-        <v>-786.5259940788699</v>
+        <v>-786.52599407886987</v>
       </c>
       <c r="D65">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E65">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F65">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G65">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H65">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I65">
-        <v>-888.9491252698919</v>
+        <v>-888.94912526989185</v>
       </c>
       <c r="J65">
         <v>-935.33795156058</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B66">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C66">
-        <v>-786.52599407887</v>
+        <v>-786.52599407886999</v>
       </c>
       <c r="D66">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E66">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F66">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G66">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H66">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I66">
-        <v>-888.9491252698919</v>
+        <v>-888.94912526989185</v>
       </c>
       <c r="J66">
         <v>-935.33795156058</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B67">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C67">
-        <v>-786.52599407887</v>
+        <v>-786.52599407886999</v>
       </c>
       <c r="D67">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E67">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F67">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G67">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H67">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I67">
-        <v>-888.9491252698919</v>
+        <v>-888.94912526989185</v>
       </c>
       <c r="J67">
-        <v>-935.3379515605802</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>-935.33795156058022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B68">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C68">
-        <v>-786.52599407887</v>
+        <v>-786.52599407886999</v>
       </c>
       <c r="D68">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E68">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F68">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G68">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H68">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I68">
-        <v>-888.9491252698919</v>
+        <v>-888.94912526989185</v>
       </c>
       <c r="J68">
-        <v>-935.3379515605802</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>-935.33795156058022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B69">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C69">
         <v>-786.5259940788701</v>
       </c>
       <c r="D69">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E69">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F69">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G69">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H69">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I69">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J69">
-        <v>-935.3379515605802</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>-935.33795156058022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B70">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C70">
         <v>-786.5259940788701</v>
       </c>
       <c r="D70">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E70">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F70">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G70">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H70">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I70">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J70">
-        <v>-935.3379515605802</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>-935.33795156058022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B71">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C71">
         <v>-786.5259940788701</v>
       </c>
       <c r="D71">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E71">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F71">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G71">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H71">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I71">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J71">
-        <v>-935.3379515605802</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>-935.33795156058022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B72">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C72">
         <v>-786.5259940788701</v>
       </c>
       <c r="D72">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E72">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F72">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G72">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H72">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I72">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J72">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B73">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C73">
         <v>-786.5259940788701</v>
       </c>
       <c r="D73">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E73">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F73">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G73">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H73">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I73">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J73">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B74">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C74">
         <v>-786.5259940788701</v>
       </c>
       <c r="D74">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E74">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F74">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G74">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H74">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I74">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J74">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B75">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C75">
         <v>-786.5259940788701</v>
       </c>
       <c r="D75">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E75">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F75">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G75">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H75">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I75">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J75">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B76">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C76">
         <v>-786.5259940788701</v>
       </c>
       <c r="D76">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E76">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F76">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G76">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H76">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I76">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J76">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B77">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C77">
         <v>-786.5259940788701</v>
       </c>
       <c r="D77">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E77">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F77">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G77">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H77">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I77">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J77">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B78">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C78">
         <v>-786.5259940788701</v>
       </c>
       <c r="D78">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E78">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F78">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G78">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H78">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I78">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J78">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B79">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C79">
         <v>-786.5259940788701</v>
       </c>
       <c r="D79">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E79">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F79">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G79">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H79">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I79">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J79">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B80">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C80">
         <v>-786.5259940788701</v>
       </c>
       <c r="D80">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E80">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F80">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G80">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H80">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I80">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J80">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B81">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C81">
         <v>-786.5259940788701</v>
       </c>
       <c r="D81">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E81">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F81">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G81">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H81">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I81">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J81">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B82">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C82">
         <v>-786.5259940788701</v>
       </c>
       <c r="D82">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E82">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F82">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G82">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H82">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I82">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J82">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B83">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C83">
         <v>-786.5259940788701</v>
       </c>
       <c r="D83">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E83">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F83">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G83">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H83">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I83">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J83">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B84">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C84">
         <v>-786.5259940788701</v>
       </c>
       <c r="D84">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E84">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F84">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G84">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H84">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I84">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J84">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B85">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C85">
         <v>-786.5259940788701</v>
       </c>
       <c r="D85">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E85">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F85">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G85">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H85">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I85">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J85">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B86">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C86">
         <v>-786.5259940788701</v>
       </c>
       <c r="D86">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E86">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F86">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G86">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H86">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I86">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J86">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B87">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C87">
         <v>-786.5259940788701</v>
       </c>
       <c r="D87">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E87">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F87">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G87">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H87">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I87">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J87">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B88">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C88">
         <v>-786.5259940788701</v>
       </c>
       <c r="D88">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E88">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F88">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G88">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H88">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I88">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J88">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B89">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C89">
         <v>-786.5259940788701</v>
       </c>
       <c r="D89">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E89">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F89">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G89">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H89">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I89">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J89">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B90">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C90">
         <v>-786.5259940788701</v>
       </c>
       <c r="D90">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E90">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F90">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G90">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H90">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I90">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J90">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B91">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C91">
         <v>-786.5259940788701</v>
       </c>
       <c r="D91">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E91">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F91">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G91">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H91">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I91">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J91">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B92">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C92">
         <v>-786.5259940788701</v>
       </c>
       <c r="D92">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E92">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F92">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G92">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H92">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I92">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J92">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B93">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C93">
         <v>-786.5259940788701</v>
       </c>
       <c r="D93">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E93">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F93">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G93">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H93">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I93">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J93">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B94">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C94">
         <v>-786.5259940788701</v>
       </c>
       <c r="D94">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E94">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F94">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G94">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H94">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I94">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J94">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B95">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C95">
         <v>-786.5259940788701</v>
       </c>
       <c r="D95">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E95">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F95">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G95">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H95">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I95">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J95">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B96">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C96">
         <v>-786.5259940788701</v>
       </c>
       <c r="D96">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E96">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F96">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G96">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H96">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I96">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J96">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B97">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C97">
         <v>-786.5259940788701</v>
       </c>
       <c r="D97">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E97">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F97">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G97">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H97">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I97">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J97">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B98">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C98">
         <v>-786.5259940788701</v>
       </c>
       <c r="D98">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E98">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F98">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G98">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H98">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I98">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J98">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B99">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C99">
         <v>-786.5259940788701</v>
       </c>
       <c r="D99">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E99">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F99">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G99">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H99">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I99">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J99">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B100">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C100">
         <v>-786.5259940788701</v>
       </c>
       <c r="D100">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E100">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F100">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G100">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H100">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I100">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J100">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B101">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C101">
         <v>-786.5259940788701</v>
       </c>
       <c r="D101">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E101">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F101">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G101">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H101">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I101">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J101">
-        <v>-935.3379515605804</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>-935.33795156058045</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B102">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="C102">
         <v>-786.5259940788701</v>
       </c>
       <c r="D102">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="E102">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
       <c r="F102">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="G102">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="H102">
-        <v>-959.640662720851</v>
+        <v>-959.64066272085097</v>
       </c>
       <c r="I102">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="J102">
-        <v>-935.3379515605804</v>
+        <v>-935.33795156058045</v>
       </c>
     </row>
   </sheetData>
